--- a/column_names_dictionary.xlsx
+++ b/column_names_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4cdd69791e362b2/Desktop/Moringa/dsc-phase-5-group-14-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_82086D7C6D5050DA4AD18937CE2F982456D9E76F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_82086D7C6D5050DA4AD18937CE2F982456D9E76F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A9738E-523B-4881-B5A4-CB92F849D251}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,12 +844,6 @@
     <t>HV255</t>
   </si>
   <si>
-    <t>Dwelling_sprayed_12months</t>
-  </si>
-  <si>
-    <t>Dwelling sprayed against mosquitoes in past 12 months</t>
-  </si>
-  <si>
     <t>HV259</t>
   </si>
   <si>
@@ -1829,6 +1823,12 @@
   </si>
   <si>
     <t>Highest year of education completed</t>
+  </si>
+  <si>
+    <t>Septic tank has been emptied</t>
+  </si>
+  <si>
+    <t>septic_tank_emptied</t>
   </si>
 </sst>
 </file>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3380,21 +3380,21 @@
         <v>273</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>274</v>
+        <v>602</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>275</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -3422,13 +3422,13 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -3490,13 +3490,13 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -3524,13 +3524,13 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -3558,1267 +3558,1267 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C182" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1">
       <c r="A188" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1">
       <c r="A190" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" s="9" t="s">
         <v>539</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1">
       <c r="A192" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C192" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1">
       <c r="A194" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1">
       <c r="A196" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C196" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1">
       <c r="A198" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C198" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1">
       <c r="A200" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C200" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1">
       <c r="A201" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C201" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1">
       <c r="A202" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C202" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1">
       <c r="A203" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C203" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1">
       <c r="A204" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C204" s="9" t="s">
         <v>576</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1">
       <c r="A205" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C205" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C206" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1">
       <c r="A207" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C207" s="9" t="s">
         <v>585</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1">
       <c r="A208" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C208" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1">
       <c r="A209" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C209" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1">
       <c r="A210" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C210" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1">
       <c r="A211" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C211" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1">
       <c r="A212" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1"/>

--- a/column_names_dictionary.xlsx
+++ b/column_names_dictionary.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4cdd69791e362b2/Desktop/Moringa/dsc-phase-5-group-14-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominc\OneDrive\Desktop\Moringa\dsc-phase-5-group-14-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_82086D7C6D5050DA4AD18937CE2F982456D9E76F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A9738E-523B-4881-B5A4-CB92F849D251}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA35059-CA4B-43F8-8C05-3D15C41ABC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,351 +47,234 @@
     <t>HHID</t>
   </si>
   <si>
-    <t>Household_ID</t>
-  </si>
-  <si>
     <t>Case identification uniquely identifies each household. In most surveys, this is constructed by concatenating the cluster or sample point number and the household number, but in some surveys this may be the questionnaire number taken from the front page of the questionnaire.</t>
   </si>
   <si>
     <t>HV000</t>
   </si>
   <si>
-    <t>Country_Code</t>
-  </si>
-  <si>
     <t>Alphabetic country code to identify the survey from which the data were collected. The code is based on an international standard code. This variable is 3 characters in length, with the third character indicating the format of the recode file used for this survey. For all surveys in DHS VII following this standard, this code will be 7. For example: DR7 is the Dominican Republic, HT7 is Haiti and KH7 is Cambodia.</t>
   </si>
   <si>
     <t>HV001</t>
   </si>
   <si>
-    <t xml:space="preserve">Cluster_number </t>
-  </si>
-  <si>
     <t>Cluster number is the number identifying the sample point as used during the fieldwork. This variable may be a composite of several variables in the questionnaire. If so, the non-standard variables are included in RECH3 as country-specific variables.</t>
   </si>
   <si>
     <t>HV002</t>
   </si>
   <si>
-    <t>Household_number</t>
-  </si>
-  <si>
     <t>Household number is the number identifying the household within the cluster or sample point. In some cases, this variable may be the combination of dwelling number and household number within dwelling. In these cases, the dwelling number is included as country-specific variable.</t>
   </si>
   <si>
     <t>HV003</t>
   </si>
   <si>
-    <t xml:space="preserve">Respondent's_ line_number </t>
-  </si>
-  <si>
     <t>Respondent's line number is the line number in the household schedule of the person responding to the questions asked in the household questionnaire. If nobody in the household was available for interview, this variable is coded 00.</t>
   </si>
   <si>
     <t>HV004</t>
   </si>
   <si>
-    <t>Area_unit</t>
-  </si>
-  <si>
     <t>Ultimate area unit is a number assigned to each sample point to identify the ultimate area units used in the collection of data. This variable is usually the same as the cluster number, but may be a sequentially numbered variable for samples with a more complicated structure.</t>
   </si>
   <si>
     <t>HV005</t>
   </si>
   <si>
-    <t>Sample_weight</t>
-  </si>
-  <si>
     <t>Sample weight is an 8 digit variable with 6 implied decimal places. To use the sample weight divide it by 1000000 before applying the weighting factor. All sample weights are normalized such that the weighted number of cases is identical to the unweighted number of households when using the full dataset with no selection. This variable should be used to weight all tabulations produced using the data file. For self-weighting samples this variable is equal to 1000000.</t>
   </si>
   <si>
     <t>HV006</t>
   </si>
   <si>
-    <t>Month_of_the_household_interview</t>
-  </si>
-  <si>
     <t>Month of the household interview</t>
   </si>
   <si>
     <t>HV007</t>
   </si>
   <si>
-    <t>Year_of_the_household_interview</t>
-  </si>
-  <si>
     <t>Year of the household interview</t>
   </si>
   <si>
     <t>HV008</t>
   </si>
   <si>
-    <t>Month_Date_of_household_Interview</t>
-  </si>
-  <si>
     <t>Century month code of date of interview, calculated from HV007 and HV006 (see note on century month codes)</t>
   </si>
   <si>
     <t>HV008A</t>
   </si>
   <si>
-    <t>Day_Date_of_household_Interview</t>
-  </si>
-  <si>
     <t>Century day code of date of interview, calculated from HV007, HV006 and HV016 (see note on century day codes)</t>
   </si>
   <si>
     <t>HV009</t>
   </si>
   <si>
-    <t>Number_of_household_members</t>
-  </si>
-  <si>
     <t>Total number of household members indicates the number of entries to be found in RECH1</t>
   </si>
   <si>
     <t>HV010</t>
   </si>
   <si>
-    <t>Number_of_eligible_women</t>
-  </si>
-  <si>
     <t>Total number of eligible women indicates the number of women found eligible for the individual survey in the household schedule. The eligibility criteria are generally: de-facto female, aged between 15 and 49. In some countries, the eligibility criteria restrict the survey to ever-married women or to de-jure women.</t>
   </si>
   <si>
     <t>HV011</t>
   </si>
   <si>
-    <t>Number_of_eligible_men</t>
-  </si>
-  <si>
     <t>Total number of eligible men indicates the number of men found eligible for the men's or husband's survey in the household. The selection criteria are country-specific and will be documented in the Household Recode Documentation for each country.</t>
   </si>
   <si>
     <t>HV012</t>
   </si>
   <si>
-    <t>Number_of_de_jure_household_members</t>
-  </si>
-  <si>
     <t>Total number of de jure household members gives the number of household members that usually live in the household</t>
   </si>
   <si>
     <t>HV013</t>
   </si>
   <si>
-    <t>Number_of_de_facto_household_members</t>
-  </si>
-  <si>
     <t>Total number of de facto household members gives the number of household members that slept in the household the previous night, including visitors.</t>
   </si>
   <si>
     <t>HV014</t>
   </si>
   <si>
-    <t>Number_of_children_resident</t>
-  </si>
-  <si>
     <t>Number of children resident in the household and aged 5 and under. Visiting children are not included.</t>
   </si>
   <si>
     <t>HV015</t>
   </si>
   <si>
-    <t>Result_of_household_interview</t>
-  </si>
-  <si>
     <t>Result of household interview. Code 1 represents a completed interview. For all other cases, only RECH0 will exist in the data file. For flat format data files, cases with a result code different than 1 are dropped from the file.</t>
   </si>
   <si>
     <t>HV016</t>
   </si>
   <si>
-    <t>Day_of_the_household_interview</t>
-  </si>
-  <si>
     <t>Day of the household interview</t>
   </si>
   <si>
     <t>HV017</t>
   </si>
   <si>
-    <t>Number_of_visits</t>
-  </si>
-  <si>
     <t>Number of visits for the household interview</t>
   </si>
   <si>
     <t>HV018</t>
   </si>
   <si>
-    <t>Interviewer_ID</t>
-  </si>
-  <si>
     <t>Interviewer identification code. Codes are country-specific.</t>
   </si>
   <si>
     <t>HV020</t>
   </si>
   <si>
-    <t>Ever-married</t>
-  </si>
-  <si>
     <t>The ever-married sample indicator is a constant for all cases in the data file. For all woman samples it is code 0, and for ever-married samples it is code 1.</t>
   </si>
   <si>
     <t>HV021</t>
   </si>
   <si>
-    <t>Primary_sampling_unit</t>
-  </si>
-  <si>
     <t>Primary sampling unit is a number assigned to sample points to identify the primary sampling units for use in the calculation of sampling errors. This variable is usually the same as the cluster number and/or the ultimate area unit, but may differ if the sample design required a multistage selection process</t>
   </si>
   <si>
     <t>HV022</t>
   </si>
   <si>
-    <t>Strata_for_sampling_errors</t>
-  </si>
-  <si>
     <t>The sample strata for sampling errors defines the pairings or groupings of primary sampling units used in the calculation of sampling errors when using the Taylor series expansion method (for example, with the package Clusters).</t>
   </si>
   <si>
     <t>HV023</t>
   </si>
   <si>
-    <t>Sample_design</t>
-  </si>
-  <si>
     <t>The stratification used in the sample design defines the basic geographic units within which the sample was designed. For example, if the sample was designed to be self-weighting within region, this variable would define those regions; if the sample was designed to be selfweighting within major urban areas, other urban areas and rural areas, this variable would define the major urban, other urban and rural areas. If the sample is self-weighted at the national level, this variable is code 0.</t>
   </si>
   <si>
     <t>HV024</t>
   </si>
   <si>
-    <t xml:space="preserve">Region_of_residence </t>
-  </si>
-  <si>
     <t>Region of residence in which the household resides. Codes are country-specific.</t>
   </si>
   <si>
     <t>HV025</t>
   </si>
   <si>
-    <t>Type_of_place</t>
-  </si>
-  <si>
     <t>Type of place of residence where the household resides as either urban or rural</t>
   </si>
   <si>
     <t>HV027</t>
   </si>
   <si>
-    <t>Male_survey</t>
-  </si>
-  <si>
     <t>Selection for men's or husband's survey indicates whether the household was selected for the subset of households in which the men's or husband's survey was administered. Code 1 indicates a men’s survey and code 2 a husband's survey, while code 0 indicates the household was not selected.</t>
   </si>
   <si>
     <t>HV028</t>
   </si>
   <si>
-    <t>Sample_weight_male</t>
-  </si>
-  <si>
     <t>Sample weight for men's or husband's survey is an 8 digit variable with 6 implied decimal places. To use the sample weight divide it by 1000000 before applying the weighting factor. All sample weights are normalized such that the weighted number of cases is identical to the unweighted number of households selected for the men's or husband's survey when using the full dataset with no other selection. This variable should be used to weight all tabulations produced using the households selected for the men's or husband's survey. For selfweighting samples this variable is equal to 1000000. For households not included in the men's or husband's survey sub-sample, this variable is set to zero</t>
   </si>
   <si>
     <t>HV030</t>
   </si>
   <si>
-    <t>Field_supervisor</t>
-  </si>
-  <si>
     <t>Field supervisor's code. Codes are country-specific.</t>
   </si>
   <si>
     <t>HV035</t>
   </si>
   <si>
-    <t>Children_under_five</t>
-  </si>
-  <si>
     <t>Number of children under five eligible for height and weight. In DHS VII, the calculation is based on the Century Day Codes for the date of the measurement and date of birth of the child: (HV807A – HC32A) / 30.4375 &lt; 60 in households selected for height and weight measurement. In previous recodes this was calculated as number of children where HV008 – HC32 &lt; 60 in households selected for height and weight measurement</t>
   </si>
   <si>
     <t>HV040</t>
   </si>
   <si>
-    <t>Cluster_altitude</t>
-  </si>
-  <si>
     <t>Cluster altitude in meters. Used to adjust the anemia measurement for altitude</t>
   </si>
   <si>
     <t>HV041</t>
   </si>
   <si>
-    <t>Women_Height_weight_measured</t>
-  </si>
-  <si>
     <t>Number of women (and men) with for height and weight measured.</t>
   </si>
   <si>
     <t>HV042</t>
   </si>
   <si>
-    <t>Household_hemoglobin_measurements</t>
-  </si>
-  <si>
     <t>Household selected for hemoglobin measurements.</t>
   </si>
   <si>
     <t>HV044</t>
   </si>
   <si>
-    <t>Household_domestic_violence</t>
-  </si>
-  <si>
     <t>Household selected for the domestic violence module.</t>
   </si>
   <si>
     <t>HV045A</t>
   </si>
   <si>
-    <t>Questionnaire_Language</t>
-  </si>
-  <si>
     <t>Language of the household questionnaire</t>
   </si>
   <si>
     <t>HV045B</t>
   </si>
   <si>
-    <t>Interview_Language</t>
-  </si>
-  <si>
     <t>Language used in the household interview</t>
   </si>
   <si>
     <t>HV045C</t>
   </si>
   <si>
-    <t>Respodent_Native_Language</t>
-  </si>
-  <si>
     <t xml:space="preserve">Native language of the household interview respondent </t>
   </si>
   <si>
     <t>HV046</t>
   </si>
   <si>
-    <t>Translator_used</t>
-  </si>
-  <si>
     <t>Translator used during the household interview</t>
   </si>
   <si>
@@ -394,36 +290,24 @@
     <t>HV801</t>
   </si>
   <si>
-    <t>Interview_start_time</t>
-  </si>
-  <si>
     <t>Time of the start of the household interview. The first two digits give the time in hours using the 24-hour clock, and the last two digits give the minutes within that hour.</t>
   </si>
   <si>
     <t>HV802</t>
   </si>
   <si>
-    <t>Interview_end_time</t>
-  </si>
-  <si>
     <t>Time of the end of the household interview. Coded in the same format as for the start of interview</t>
   </si>
   <si>
     <t>HV803</t>
   </si>
   <si>
-    <t>Interview_length</t>
-  </si>
-  <si>
     <t>Length of interview in minutes is calculated from the previous two variables, but with interviews that required more than one visit being coded 96.</t>
   </si>
   <si>
     <t>HV201</t>
   </si>
   <si>
-    <t>Main_source_drink_water</t>
-  </si>
-  <si>
     <t xml:space="preserve">Source of drinking water </t>
   </si>
   <si>
@@ -439,18 +323,12 @@
     <t>HV204</t>
   </si>
   <si>
-    <t>Time_to_water_source</t>
-  </si>
-  <si>
     <t>Time taken to get to the water source for drinking wate</t>
   </si>
   <si>
     <t>HV205</t>
   </si>
   <si>
-    <t>Type_toilet_facility</t>
-  </si>
-  <si>
     <t>Type of toilet facility in the household. Individual codes are country-specific, but the major categories are standard.</t>
   </si>
   <si>
@@ -565,9 +443,6 @@
     <t>HV218</t>
   </si>
   <si>
-    <t>Line_number_of_head_of_household</t>
-  </si>
-  <si>
     <t>Line number of head of household. This should always be 01, however there are some households in certain surveys in which the head of household has not been listed as the first person in the household listing.</t>
   </si>
   <si>
@@ -583,18 +458,12 @@
     <t>HV220</t>
   </si>
   <si>
-    <t>Age_household_head</t>
-  </si>
-  <si>
     <t>Age of head of household.</t>
   </si>
   <si>
     <t>HV221</t>
   </si>
   <si>
-    <t>Household_has_telephone</t>
-  </si>
-  <si>
     <t>Whether the household has a telephone.</t>
   </si>
   <si>
@@ -619,9 +488,6 @@
     <t>HV226</t>
   </si>
   <si>
-    <t>Cooking_fuel_type</t>
-  </si>
-  <si>
     <t>Type of cooking fuel.</t>
   </si>
   <si>
@@ -637,18 +503,12 @@
     <t>HV230A</t>
   </si>
   <si>
-    <t>Handwashing_place</t>
-  </si>
-  <si>
     <t>Place where household members wash their hands</t>
   </si>
   <si>
     <t>HV234A</t>
   </si>
   <si>
-    <t>Result_of_salt_test_for_iodine</t>
-  </si>
-  <si>
     <t>Result of salt test for iodine</t>
   </si>
   <si>
@@ -763,18 +623,12 @@
     <t>HV243A</t>
   </si>
   <si>
-    <t>Has_Mobile</t>
-  </si>
-  <si>
     <t>Has a mobile telephone</t>
   </si>
   <si>
     <t>HV243B</t>
   </si>
   <si>
-    <t>Has_watch</t>
-  </si>
-  <si>
     <t>Has a watch</t>
   </si>
   <si>
@@ -847,9 +701,6 @@
     <t>HV259</t>
   </si>
   <si>
-    <t xml:space="preserve">Home_heat_source </t>
-  </si>
-  <si>
     <t>Heat source for home.</t>
   </si>
   <si>
@@ -919,27 +770,18 @@
     <t>HML1</t>
   </si>
   <si>
-    <t>Number_of_mosquito_nets</t>
-  </si>
-  <si>
     <t>Number of mosquito nets household owns</t>
   </si>
   <si>
     <t>HML1A</t>
   </si>
   <si>
-    <t>Number_of_mosquito_nets_specific</t>
-  </si>
-  <si>
     <t>Number of mosquito nets with specific information. Ownership of up to 7 mosquito nets (0 through 7+) is recorded in HML1 and further information for up to 7 mosquito nets is collected in the “Malaria by mosquito bed net” section (RECHML: variables HMLIDX through HML23). Variables HML1 and HML1A are therefore generally identical, however, it is possible that further information for some mosquito nets wat provided.</t>
   </si>
   <si>
     <t>HML2</t>
   </si>
   <si>
-    <t>Children_under_mosquito_net</t>
-  </si>
-  <si>
     <t>Number of children sleeping under a mosquito net the previous night</t>
   </si>
   <si>
@@ -1252,18 +1094,12 @@
     <t>HVIDX$01</t>
   </si>
   <si>
-    <t>Line_number_1</t>
-  </si>
-  <si>
     <t>Line number</t>
   </si>
   <si>
     <t>HVIDX$02</t>
   </si>
   <si>
-    <t>Line_number_2</t>
-  </si>
-  <si>
     <t>HV101$01</t>
   </si>
   <si>
@@ -1747,27 +1583,18 @@
     <t>HV246E</t>
   </si>
   <si>
-    <t>Owns_Sheep</t>
-  </si>
-  <si>
     <t>Owns sheep</t>
   </si>
   <si>
     <t>HV246F</t>
   </si>
   <si>
-    <t>Owns_Poultry</t>
-  </si>
-  <si>
     <t>Owns chickens/poultry</t>
   </si>
   <si>
     <t>HV246G</t>
   </si>
   <si>
-    <t>Owns_Cs</t>
-  </si>
-  <si>
     <t>Owns CS</t>
   </si>
   <si>
@@ -1829,6 +1656,192 @@
   </si>
   <si>
     <t>septic_tank_emptied</t>
+  </si>
+  <si>
+    <t>household_id</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster_number </t>
+  </si>
+  <si>
+    <t>household_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent's_ line_number </t>
+  </si>
+  <si>
+    <t>area_unit</t>
+  </si>
+  <si>
+    <t>sample_weight</t>
+  </si>
+  <si>
+    <t>month_of_the_household_interview</t>
+  </si>
+  <si>
+    <t>year_of_the_household_interview</t>
+  </si>
+  <si>
+    <t>month_date_of_household_interview</t>
+  </si>
+  <si>
+    <t>day_date_of_household_interview</t>
+  </si>
+  <si>
+    <t>number_of_household_members</t>
+  </si>
+  <si>
+    <t>number_of_eligible_women</t>
+  </si>
+  <si>
+    <t>number_of_eligible_men</t>
+  </si>
+  <si>
+    <t>number_of_de_jure_household_members</t>
+  </si>
+  <si>
+    <t>number_of_de_facto_household_members</t>
+  </si>
+  <si>
+    <t>number_of_children_resident</t>
+  </si>
+  <si>
+    <t>result_of_household_interview</t>
+  </si>
+  <si>
+    <t>day_of_the_household_interview</t>
+  </si>
+  <si>
+    <t>number_of_visits</t>
+  </si>
+  <si>
+    <t>interviewer_id</t>
+  </si>
+  <si>
+    <t>ever-married</t>
+  </si>
+  <si>
+    <t>primary_sampling_unit</t>
+  </si>
+  <si>
+    <t>strata_for_sampling_errors</t>
+  </si>
+  <si>
+    <t>sample_design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_of_residence </t>
+  </si>
+  <si>
+    <t>type_of_place</t>
+  </si>
+  <si>
+    <t>male_survey</t>
+  </si>
+  <si>
+    <t>sample_weight_male</t>
+  </si>
+  <si>
+    <t>field_supervisor</t>
+  </si>
+  <si>
+    <t>children_under_five</t>
+  </si>
+  <si>
+    <t>cluster_altitude</t>
+  </si>
+  <si>
+    <t>women_height_weight_measured</t>
+  </si>
+  <si>
+    <t>household_hemoglobin_measurements</t>
+  </si>
+  <si>
+    <t>household_domestic_violence</t>
+  </si>
+  <si>
+    <t>questionnaire_language</t>
+  </si>
+  <si>
+    <t>interview_language</t>
+  </si>
+  <si>
+    <t>respodent_native_language</t>
+  </si>
+  <si>
+    <t>translator_used</t>
+  </si>
+  <si>
+    <t>interview_start_time</t>
+  </si>
+  <si>
+    <t>interview_end_time</t>
+  </si>
+  <si>
+    <t>interview_length</t>
+  </si>
+  <si>
+    <t>main_source_drink_water</t>
+  </si>
+  <si>
+    <t>time_to_water_source</t>
+  </si>
+  <si>
+    <t>type_toilet_facility</t>
+  </si>
+  <si>
+    <t>line_number_of_head_of_household</t>
+  </si>
+  <si>
+    <t>age_household_head</t>
+  </si>
+  <si>
+    <t>household_has_telephone</t>
+  </si>
+  <si>
+    <t>cooking_fuel_type</t>
+  </si>
+  <si>
+    <t>handwashing_place</t>
+  </si>
+  <si>
+    <t>result_of_salt_test_for_iodine</t>
+  </si>
+  <si>
+    <t>has_mobile</t>
+  </si>
+  <si>
+    <t>has_watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home_heat_source </t>
+  </si>
+  <si>
+    <t>number_of_mosquito_nets</t>
+  </si>
+  <si>
+    <t>number_of_mosquito_nets_specific</t>
+  </si>
+  <si>
+    <t>children_under_mosquito_net</t>
+  </si>
+  <si>
+    <t>line_number_1</t>
+  </si>
+  <si>
+    <t>line_number_2</t>
+  </si>
+  <si>
+    <t>owns_sheep</t>
+  </si>
+  <si>
+    <t>owns_poultry</t>
+  </si>
+  <si>
+    <t>owns_cs</t>
   </si>
 </sst>
 </file>
@@ -1896,24 +1909,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1945,22 +1946,22 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2178,16 +2179,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="590.85546875" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="590.85546875" style="3" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
@@ -2202,2623 +2204,2610 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="B15" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B32" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B60" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B61" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="B63" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B64" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A65" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A66" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C66" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B67" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A68" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="B68" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C68" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="3" t="s">
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A75" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A76" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A77" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A78" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A79" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B79" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C79" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A80" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B80" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A81" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="7" t="s">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A82" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A83" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B83" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="6" t="s">
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A84" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="B84" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="3" t="s">
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A85" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A86" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="B87" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+    </row>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A88" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="B88" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="C88" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="3" t="s">
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A89" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="C89" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A90" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A91" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A92" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B92" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A93" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="B93" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+    </row>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A94" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+    </row>
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A95" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+    </row>
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A96" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="7" t="s">
+      <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+    </row>
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A97" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="B97" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="7"/>
-      <c r="Y78" s="7"/>
-      <c r="Z78" s="7"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="7" t="s">
+      <c r="C97" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+    </row>
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A98" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="7"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="7" t="s">
+      <c r="C98" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="7" t="s">
+    </row>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A99" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="B99" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="3" t="s">
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A100" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="B100" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="3" t="s">
+    </row>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A101" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="B101" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A102" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B102" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A103" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="B103" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="3" t="s">
+    </row>
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A104" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="7" t="s">
+      <c r="C104" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="7" t="s">
+    </row>
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A105" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="B105" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="7"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="7" t="s">
+      <c r="C105" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="7" t="s">
+    </row>
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A106" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="B106" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="7" t="s">
+      <c r="C106" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="7" t="s">
+    </row>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A107" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="B107" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="7"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="3" t="s">
+    </row>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A108" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="B108" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="7" t="s">
+      <c r="C108" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="7" t="s">
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A109" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="B109" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="3" t="s">
+    </row>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A110" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="3" t="s">
+    </row>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A111" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A93" s="7" t="s">
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A112" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B112" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C112" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="7" t="s">
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A113" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B113" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C113" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A95" s="7" t="s">
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A114" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B114" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C114" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A96" s="7" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A115" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B115" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C115" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="7" t="s">
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A116" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B116" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C116" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A117" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A118" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A119" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A120" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A121" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C121" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A122" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C122" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A123" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C123" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A124" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C124" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A125" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A126" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A127" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A128" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A129" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A130" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A131" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A132" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A133" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A134" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A135" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A136" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C136" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A137" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C137" s="11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A138" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B138" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C119" s="3" t="s">
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A139" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
+      <c r="B139" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A140" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A141" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C141" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A142" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="5" t="s">
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A143" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="C143" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A144" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B124" s="3" t="s">
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A145" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
+      <c r="C145" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A146" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B146" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A147" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C147" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A148" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="3" t="s">
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A149" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C149" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A150" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B129" s="3" t="s">
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A151" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="B151" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A152" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C130" s="3" t="s">
+    </row>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A153" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
+      <c r="B153" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A154" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A155" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C155" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A156" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
+      <c r="B156" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C133" s="3" t="s">
+    </row>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A157" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="3" t="s">
+    </row>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A158" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A135" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C135" s="3" t="s">
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A159" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C159" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A160" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="B160" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A137" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B137" s="3" t="s">
+    </row>
+    <row r="161" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A161" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="B161" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A138" s="3" t="s">
+      <c r="C161" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A162" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A163" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A164" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B164" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C164" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A165" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B165" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C165" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A166" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B166" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A143" s="3" t="s">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A167" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A168" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B168" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C168" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A145" s="3" t="s">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A169" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C169" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A146" s="3" t="s">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A170" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C170" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A147" s="3" t="s">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A171" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C171" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A148" s="3" t="s">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A172" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C172" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A149" s="3" t="s">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A173" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C173" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A150" s="3" t="s">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A174" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C174" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A151" s="3" t="s">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A175" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C151" s="3" t="s">
+      <c r="B175" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B152" s="3" t="s">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A176" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
+      <c r="C176" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A154" s="3" t="s">
+    </row>
+    <row r="177" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A177" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C177" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A178" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A155" s="3" t="s">
+      <c r="B178" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="C178" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A156" s="3" t="s">
+    </row>
+    <row r="179" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A179" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B179" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C179" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A180" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A157" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C180" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C157" s="3" t="s">
+    </row>
+    <row r="181" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A181" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A158" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C181" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A182" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="B182" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A159" s="3" t="s">
+      <c r="C182" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="B159" s="3" t="s">
+    </row>
+    <row r="183" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A183" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C183" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A184" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="B184" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A161" s="3" t="s">
+      <c r="C184" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A185" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B185" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A162" s="3" t="s">
+      <c r="C185" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A186" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B186" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C186" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A163" s="3" t="s">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A187" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C187" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A164" s="3" t="s">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A188" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B188" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C188" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A165" s="3" t="s">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A189" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C189" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A166" s="3" t="s">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A190" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B190" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C190" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A167" s="3" t="s">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A191" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B191" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C191" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A168" s="3" t="s">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A192" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B192" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C192" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A169" s="3" t="s">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A193" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B193" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C193" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A170" s="3" t="s">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A194" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B194" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C194" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A171" s="3" t="s">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A195" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B195" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C195" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A172" s="3" t="s">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A196" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B196" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C196" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A173" s="3" t="s">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A197" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B197" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C197" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A174" s="3" t="s">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A198" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C198" s="9" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A175" s="3" t="s">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A199" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C199" s="9" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A176" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A177" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A178" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A179" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A180" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A181" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A182" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A183" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A184" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A185" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A186" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A187" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A188" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A189" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A190" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A191" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A192" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A193" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A194" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A195" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A196" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A197" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A198" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A199" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1">
       <c r="A200" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>563</v>
+        <v>503</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>564</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>566</v>
+        <v>506</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>569</v>
+        <v>509</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1">
       <c r="A204" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>575</v>
+        <v>515</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1">
       <c r="A205" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>578</v>
+        <v>517</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>581</v>
+        <v>519</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>584</v>
+        <v>521</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1">
       <c r="A208" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>587</v>
+        <v>524</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1">
       <c r="A209" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>590</v>
+        <v>527</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1">
       <c r="A210" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>593</v>
+        <v>530</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>594</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1">
       <c r="A211" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>596</v>
+        <v>533</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1">
       <c r="A212" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>600</v>
+        <v>536</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1"/>
@@ -4833,782 +4822,782 @@
     <row r="222" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="223" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="224" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
